--- a/1_Result_Tables/2_ifo_qoq_evaluations_sd_filtered/ifo_qoq_forecast_error_table_latest_eval_sd_filtered.xlsx
+++ b/1_Result_Tables/2_ifo_qoq_evaluations_sd_filtered/ifo_qoq_forecast_error_table_latest_eval_sd_filtered.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0535720662232099</v>
+        <v>-0.05188361557894466</v>
       </c>
       <c r="C2">
-        <v>0.3804380595292169</v>
+        <v>0.3732691606683305</v>
       </c>
       <c r="D2">
-        <v>0.2988077158309997</v>
+        <v>0.2921056387580342</v>
       </c>
       <c r="E2">
-        <v>0.5466330723904287</v>
+        <v>0.5404679812514653</v>
       </c>
       <c r="F2">
-        <v>0.5497583991303591</v>
+        <v>0.5435468534395178</v>
       </c>
       <c r="G2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.142211195803452</v>
+        <v>0.1398461492215967</v>
       </c>
       <c r="C3">
-        <v>0.5306568483786926</v>
+        <v>0.5201991840348531</v>
       </c>
       <c r="D3">
-        <v>0.5378667820267887</v>
+        <v>0.5256151831718032</v>
       </c>
       <c r="E3">
-        <v>0.7333940155378885</v>
+        <v>0.7249932297420461</v>
       </c>
       <c r="F3">
-        <v>0.7272522679550065</v>
+        <v>0.7189057200126604</v>
       </c>
       <c r="G3">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.4275964362341583</v>
+        <v>0.4203416940300701</v>
       </c>
       <c r="C4">
-        <v>0.7147463499546313</v>
+        <v>0.7015093178813666</v>
       </c>
       <c r="D4">
-        <v>0.9954974958833912</v>
+        <v>0.9741072080335899</v>
       </c>
       <c r="E4">
-        <v>0.9977462081528504</v>
+        <v>0.9869686965824144</v>
       </c>
       <c r="F4">
-        <v>0.9112218604154321</v>
+        <v>0.902433627878138</v>
       </c>
       <c r="G4">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.4260636251449434</v>
+        <v>0.4178943810801925</v>
       </c>
       <c r="C5">
-        <v>0.8059505982200943</v>
+        <v>0.7896986526005529</v>
       </c>
       <c r="D5">
-        <v>1.391834280795247</v>
+        <v>1.360587987782973</v>
       </c>
       <c r="E5">
-        <v>1.179760264119472</v>
+        <v>1.166442449408874</v>
       </c>
       <c r="F5">
-        <v>1.112294796392529</v>
+        <v>1.10078782933836</v>
       </c>
       <c r="G5">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2504427319258737</v>
+        <v>0.2532779346943542</v>
       </c>
       <c r="C6">
-        <v>0.6007683077550728</v>
+        <v>0.5959877371359621</v>
       </c>
       <c r="D6">
-        <v>0.7072953999186731</v>
+        <v>0.6944367481990631</v>
       </c>
       <c r="E6">
-        <v>0.8410085611446967</v>
+        <v>0.8333287155733103</v>
       </c>
       <c r="F6">
-        <v>0.8119256390532327</v>
+        <v>0.8026788987968445</v>
       </c>
       <c r="G6">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2857380023602537</v>
+        <v>0.2847813693415759</v>
       </c>
       <c r="C7">
-        <v>0.5269603574901436</v>
+        <v>0.5189089493205867</v>
       </c>
       <c r="D7">
-        <v>0.4982232845575209</v>
+        <v>0.4842484560603196</v>
       </c>
       <c r="E7">
-        <v>0.7058493355933126</v>
+        <v>0.6958796275652275</v>
       </c>
       <c r="F7">
-        <v>0.6554350557224105</v>
+        <v>0.6444878855629137</v>
       </c>
       <c r="G7">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2220622513505738</v>
+        <v>0.2226667514831955</v>
       </c>
       <c r="C8">
-        <v>0.5237084216827369</v>
+        <v>0.5151721287749901</v>
       </c>
       <c r="D8">
-        <v>0.5196366229947025</v>
+        <v>0.504580525438979</v>
       </c>
       <c r="E8">
-        <v>0.7208582544402904</v>
+        <v>0.7103383175916804</v>
       </c>
       <c r="F8">
-        <v>0.6967759704903108</v>
+        <v>0.6849954704767146</v>
       </c>
       <c r="G8">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1516990397508117</v>
+        <v>0.1530436297492116</v>
       </c>
       <c r="C9">
-        <v>0.5269450697927011</v>
+        <v>0.5048367829134828</v>
       </c>
       <c r="D9">
-        <v>0.4905198269360059</v>
+        <v>0.4592703115339658</v>
       </c>
       <c r="E9">
-        <v>0.7003712065297987</v>
+        <v>0.6776948513409009</v>
       </c>
       <c r="F9">
-        <v>0.7077433162686028</v>
+        <v>0.681839049572768</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1663951056076265</v>
+        <v>0.1712605454146585</v>
       </c>
       <c r="C10">
-        <v>0.3585665468253336</v>
+        <v>0.3442148425105949</v>
       </c>
       <c r="D10">
-        <v>0.1859116469510453</v>
+        <v>0.1719451111591538</v>
       </c>
       <c r="E10">
-        <v>0.4311747290264648</v>
+        <v>0.4146626474125127</v>
       </c>
       <c r="F10">
-        <v>0.4219032534284147</v>
+        <v>0.3980716528792657</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
